--- a/Documentais/Backlog.xlsx
+++ b/Documentais/Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpfer\OneDrive\Documentos\SPTECH\PI\Projeto-Individual\Documentais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0B235E-5633-4D88-8978-4414EF09AED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0403DA6A-3C73-4480-939C-417D3A7B8EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2112" yWindow="372" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
   <si>
     <t>Essencial</t>
   </si>
@@ -66,13 +66,7 @@
     <t>Classificação</t>
   </si>
   <si>
-    <t>Em Andamento</t>
-  </si>
-  <si>
     <t>Finalizada</t>
-  </si>
-  <si>
-    <t>Pendente</t>
   </si>
   <si>
     <t>Status</t>
@@ -254,15 +248,15 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -325,26 +319,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -494,6 +468,26 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -514,21 +508,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}" name="Tabela2" displayName="Tabela2" ref="A2:F17" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}" name="Tabela2" displayName="Tabela2" ref="A2:F17" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A2:F17" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F14">
     <sortCondition ref="B3:B14"/>
     <sortCondition ref="E3:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9F7D184E-A2F2-4E3C-AF8D-4C0F7A1EB03C}" name="Requisito" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{7736CB43-35DE-44E3-99F9-A059BE9A77F6}" name="Classificação" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{3502BB37-E611-4076-B136-7B67D26992FF}" name="Tamanho " dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{9F7D184E-A2F2-4E3C-AF8D-4C0F7A1EB03C}" name="Requisito" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{7736CB43-35DE-44E3-99F9-A059BE9A77F6}" name="Classificação" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{3502BB37-E611-4076-B136-7B67D26992FF}" name="Tamanho " dataDxfId="9">
       <calculatedColumnFormula array="1">_xlfn.IFS(D3=3,"PP",D3=5,"P",D3=8,"M",D3=13,"G",D3=21,"GG")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{04F91C54-26E1-4063-B34C-03486B3A493F}" name="Tamanho (#)" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{203EEE87-31C9-4EC2-8FF5-1485A10738C6}" name="Prioridade" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{D6670E8A-4039-4A31-A647-3D365CB5F2AA}" name="Status" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{04F91C54-26E1-4063-B34C-03486B3A493F}" name="Tamanho (#)" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{203EEE87-31C9-4EC2-8FF5-1485A10738C6}" name="Prioridade" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{D6670E8A-4039-4A31-A647-3D365CB5F2AA}" name="Status" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -819,47 +813,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5">
         <v>3</v>
@@ -868,18 +862,18 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="5">
         <v>3</v>
@@ -888,18 +882,18 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5">
         <v>21</v>
@@ -913,13 +907,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
@@ -933,7 +927,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
@@ -949,19 +943,19 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5">
         <v>8</v>
@@ -970,18 +964,18 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5">
         <v>21</v>
@@ -990,18 +984,18 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="5">
         <v>13</v>
@@ -1010,18 +1004,18 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="5">
         <v>3</v>
@@ -1030,18 +1024,18 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5">
         <v>8</v>
@@ -1050,18 +1044,18 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="5">
         <v>5</v>
@@ -1070,18 +1064,18 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="5">
         <v>21</v>
@@ -1090,18 +1084,18 @@
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="5">
         <v>21</v>
@@ -1110,18 +1104,18 @@
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D16" s="5">
         <v>21</v>
@@ -1130,18 +1124,18 @@
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="5">
         <v>21</v>
@@ -1150,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
